--- a/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
+++ b/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC46"/>
+  <dimension ref="A1:HE46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1484,6 +1484,16 @@
           <t>2025-02</t>
         </is>
       </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2122,10 +2132,16 @@
         <v>5966.272</v>
       </c>
       <c r="HB2" t="n">
-        <v>6331.954</v>
+        <v>6375.026</v>
       </c>
       <c r="HC2" t="n">
-        <v>5717.502</v>
+        <v>5751.916</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>5761.383</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>6135.493</v>
       </c>
     </row>
     <row r="3">
@@ -2765,10 +2781,16 @@
         <v>1963.444</v>
       </c>
       <c r="HB3" t="n">
-        <v>2352.538</v>
+        <v>2364.892</v>
       </c>
       <c r="HC3" t="n">
-        <v>2216.479</v>
+        <v>2198.252</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>1714.934</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>1177.516</v>
       </c>
     </row>
     <row r="4">
@@ -3216,10 +3238,16 @@
         <v>32.909</v>
       </c>
       <c r="HB4" t="n">
-        <v>37.153</v>
+        <v>37.096</v>
       </c>
       <c r="HC4" t="n">
-        <v>38.767</v>
+        <v>38.218</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>29.766</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>19.192</v>
       </c>
     </row>
     <row r="5">
@@ -3643,10 +3671,16 @@
         <v>246.981</v>
       </c>
       <c r="HB5" t="n">
-        <v>391.58</v>
+        <v>393.55</v>
       </c>
       <c r="HC5" t="n">
-        <v>370.614</v>
+        <v>363.937</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>398.026</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>368.236</v>
       </c>
     </row>
     <row r="6">
@@ -4070,10 +4104,16 @@
         <v>4.14</v>
       </c>
       <c r="HB6" t="n">
-        <v>6.184</v>
+        <v>6.173</v>
       </c>
       <c r="HC6" t="n">
-        <v>6.482</v>
+        <v>6.327</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>6.909</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>6.002</v>
       </c>
     </row>
     <row r="7">
@@ -4497,10 +4537,16 @@
         <v>62.319</v>
       </c>
       <c r="HB7" t="n">
-        <v>76.282</v>
+        <v>77.955</v>
       </c>
       <c r="HC7" t="n">
-        <v>64.336</v>
+        <v>65.134</v>
+      </c>
+      <c r="HD7" t="n">
+        <v>63.019</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>67.973</v>
       </c>
     </row>
     <row r="8">
@@ -4924,10 +4970,16 @@
         <v>1.045</v>
       </c>
       <c r="HB8" t="n">
-        <v>1.205</v>
+        <v>1.223</v>
       </c>
       <c r="HC8" t="n">
-        <v>1.125</v>
+        <v>1.132</v>
+      </c>
+      <c r="HD8" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>1.108</v>
       </c>
     </row>
     <row r="9">
@@ -5351,10 +5403,16 @@
         <v>148.731</v>
       </c>
       <c r="HB9" t="n">
-        <v>142.652</v>
+        <v>142.398</v>
       </c>
       <c r="HC9" t="n">
-        <v>122.709</v>
+        <v>120.709</v>
+      </c>
+      <c r="HD9" t="n">
+        <v>139.171</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>131.081</v>
       </c>
     </row>
     <row r="10">
@@ -5778,10 +5836,16 @@
         <v>2.493</v>
       </c>
       <c r="HB10" t="n">
-        <v>2.253</v>
+        <v>2.234</v>
       </c>
       <c r="HC10" t="n">
-        <v>2.146</v>
+        <v>2.099</v>
+      </c>
+      <c r="HD10" t="n">
+        <v>2.416</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>2.136</v>
       </c>
     </row>
     <row r="11">
@@ -6205,10 +6269,16 @@
         <v>1455.794</v>
       </c>
       <c r="HB11" t="n">
-        <v>1684.621</v>
+        <v>1695.023</v>
       </c>
       <c r="HC11" t="n">
-        <v>1603.76</v>
+        <v>1594.234</v>
+      </c>
+      <c r="HD11" t="n">
+        <v>1056.749</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>559.6319999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6632,10 +6702,16 @@
         <v>24.4</v>
       </c>
       <c r="HB12" t="n">
-        <v>26.605</v>
+        <v>26.588</v>
       </c>
       <c r="HC12" t="n">
-        <v>28.05</v>
+        <v>27.717</v>
+      </c>
+      <c r="HD12" t="n">
+        <v>18.342</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>9.121</v>
       </c>
     </row>
     <row r="13">
@@ -7059,10 +7135,16 @@
         <v>49.619</v>
       </c>
       <c r="HB13" t="n">
-        <v>57.403</v>
+        <v>55.966</v>
       </c>
       <c r="HC13" t="n">
-        <v>55.06</v>
+        <v>54.238</v>
+      </c>
+      <c r="HD13" t="n">
+        <v>57.969</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>50.594</v>
       </c>
     </row>
     <row r="14">
@@ -7486,10 +7568,16 @@
         <v>0.832</v>
       </c>
       <c r="HB14" t="n">
-        <v>0.907</v>
+        <v>0.878</v>
       </c>
       <c r="HC14" t="n">
-        <v>0.963</v>
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="HD14" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="HE14" t="n">
+        <v>0.825</v>
       </c>
     </row>
     <row r="15">
@@ -7913,10 +8001,16 @@
         <v>3814.311</v>
       </c>
       <c r="HB15" t="n">
-        <v>4370.996</v>
+        <v>4403.684</v>
       </c>
       <c r="HC15" t="n">
-        <v>3871.637</v>
+        <v>3917.601</v>
+      </c>
+      <c r="HD15" t="n">
+        <v>4444.475</v>
+      </c>
+      <c r="HE15" t="n">
+        <v>5326.213</v>
       </c>
     </row>
     <row r="16">
@@ -8340,10 +8434,16 @@
         <v>63.931</v>
       </c>
       <c r="HB16" t="n">
-        <v>69.03100000000001</v>
+        <v>69.077</v>
       </c>
       <c r="HC16" t="n">
-        <v>67.71599999999999</v>
+        <v>68.10899999999999</v>
+      </c>
+      <c r="HD16" t="n">
+        <v>77.143</v>
+      </c>
+      <c r="HE16" t="n">
+        <v>86.81</v>
       </c>
     </row>
     <row r="17">
@@ -8983,10 +9083,16 @@
         <v>2638.565</v>
       </c>
       <c r="HB17" t="n">
-        <v>2879.568</v>
+        <v>2908.406</v>
       </c>
       <c r="HC17" t="n">
-        <v>2363.471</v>
+        <v>2414.198</v>
+      </c>
+      <c r="HD17" t="n">
+        <v>2363.16</v>
+      </c>
+      <c r="HE17" t="n">
+        <v>2973.481</v>
       </c>
     </row>
     <row r="18">
@@ -9425,7 +9531,7 @@
         <v>61.097</v>
       </c>
       <c r="GY18" t="n">
-        <v>64.054</v>
+        <v>64.05500000000001</v>
       </c>
       <c r="GZ18" t="n">
         <v>44.34</v>
@@ -9434,10 +9540,16 @@
         <v>44.225</v>
       </c>
       <c r="HB18" t="n">
-        <v>45.477</v>
+        <v>45.622</v>
       </c>
       <c r="HC18" t="n">
-        <v>41.337</v>
+        <v>41.972</v>
+      </c>
+      <c r="HD18" t="n">
+        <v>41.017</v>
+      </c>
+      <c r="HE18" t="n">
+        <v>48.464</v>
       </c>
     </row>
     <row r="19">
@@ -9861,10 +9973,16 @@
         <v>1652.904</v>
       </c>
       <c r="HB19" t="n">
-        <v>1725.038</v>
+        <v>1764.379</v>
       </c>
       <c r="HC19" t="n">
-        <v>1360.627</v>
+        <v>1407.176</v>
+      </c>
+      <c r="HD19" t="n">
+        <v>1508.775</v>
+      </c>
+      <c r="HE19" t="n">
+        <v>2060.616</v>
       </c>
     </row>
     <row r="20">
@@ -10288,10 +10406,16 @@
         <v>27.704</v>
       </c>
       <c r="HB20" t="n">
-        <v>27.243</v>
+        <v>27.676</v>
       </c>
       <c r="HC20" t="n">
-        <v>23.798</v>
+        <v>24.464</v>
+      </c>
+      <c r="HD20" t="n">
+        <v>26.188</v>
+      </c>
+      <c r="HE20" t="n">
+        <v>33.585</v>
       </c>
     </row>
     <row r="21">
@@ -10715,10 +10839,16 @@
         <v>985.6609999999999</v>
       </c>
       <c r="HB21" t="n">
-        <v>1154.53</v>
+        <v>1144.027</v>
       </c>
       <c r="HC21" t="n">
-        <v>1002.844</v>
+        <v>1007.022</v>
+      </c>
+      <c r="HD21" t="n">
+        <v>854.385</v>
+      </c>
+      <c r="HE21" t="n">
+        <v>912.865</v>
       </c>
     </row>
     <row r="22">
@@ -11142,10 +11272,16 @@
         <v>16.521</v>
       </c>
       <c r="HB22" t="n">
-        <v>18.233</v>
+        <v>17.945</v>
       </c>
       <c r="HC22" t="n">
-        <v>17.54</v>
+        <v>17.508</v>
+      </c>
+      <c r="HD22" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="HE22" t="n">
+        <v>14.878</v>
       </c>
     </row>
     <row r="23">
@@ -11574,6 +11710,12 @@
       <c r="HC23" t="n">
         <v>0</v>
       </c>
+      <c r="HD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -11959,48 +12101,22 @@
       <c r="GO24" t="n">
         <v>0</v>
       </c>
-      <c r="GP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC24" t="n">
-        <v>0</v>
-      </c>
+      <c r="GP24" t="inlineStr"/>
+      <c r="GQ24" t="inlineStr"/>
+      <c r="GR24" t="inlineStr"/>
+      <c r="GS24" t="inlineStr"/>
+      <c r="GT24" t="inlineStr"/>
+      <c r="GU24" t="inlineStr"/>
+      <c r="GV24" t="inlineStr"/>
+      <c r="GW24" t="inlineStr"/>
+      <c r="GX24" t="inlineStr"/>
+      <c r="GY24" t="inlineStr"/>
+      <c r="GZ24" t="inlineStr"/>
+      <c r="HA24" t="inlineStr"/>
+      <c r="HB24" t="inlineStr"/>
+      <c r="HC24" t="inlineStr"/>
+      <c r="HD24" t="inlineStr"/>
+      <c r="HE24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -12642,6 +12758,12 @@
         <v>0</v>
       </c>
       <c r="HC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13095,6 +13217,12 @@
       <c r="HC26" t="n">
         <v>0</v>
       </c>
+      <c r="HD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -13733,10 +13861,16 @@
         <v>928.765</v>
       </c>
       <c r="HB27" t="n">
-        <v>741.657</v>
+        <v>740.546</v>
       </c>
       <c r="HC27" t="n">
-        <v>620.634</v>
+        <v>619.46</v>
+      </c>
+      <c r="HD27" t="n">
+        <v>849.566</v>
+      </c>
+      <c r="HE27" t="n">
+        <v>920.353</v>
       </c>
     </row>
     <row r="28">
@@ -14184,10 +14318,16 @@
         <v>15.567</v>
       </c>
       <c r="HB28" t="n">
-        <v>11.713</v>
+        <v>11.616</v>
       </c>
       <c r="HC28" t="n">
-        <v>10.855</v>
+        <v>10.77</v>
+      </c>
+      <c r="HD28" t="n">
+        <v>14.746</v>
+      </c>
+      <c r="HE28" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -14611,10 +14751,16 @@
         <v>928.765</v>
       </c>
       <c r="HB29" t="n">
-        <v>741.657</v>
+        <v>740.546</v>
       </c>
       <c r="HC29" t="n">
-        <v>620.634</v>
+        <v>619.46</v>
+      </c>
+      <c r="HD29" t="n">
+        <v>849.566</v>
+      </c>
+      <c r="HE29" t="n">
+        <v>920.353</v>
       </c>
     </row>
     <row r="30">
@@ -15038,10 +15184,16 @@
         <v>15.567</v>
       </c>
       <c r="HB30" t="n">
-        <v>11.713</v>
+        <v>11.616</v>
       </c>
       <c r="HC30" t="n">
-        <v>10.855</v>
+        <v>10.77</v>
+      </c>
+      <c r="HD30" t="n">
+        <v>14.746</v>
+      </c>
+      <c r="HE30" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -15470,6 +15622,12 @@
       <c r="HC31" t="n">
         <v>0</v>
       </c>
+      <c r="HD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -15897,6 +16055,12 @@
       <c r="HC32" t="n">
         <v>0</v>
       </c>
+      <c r="HD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -16319,10 +16483,16 @@
         <v>0</v>
       </c>
       <c r="HB33" t="n">
-        <v>358.191</v>
+        <v>361.182</v>
       </c>
       <c r="HC33" t="n">
-        <v>516.918</v>
+        <v>520.006</v>
+      </c>
+      <c r="HD33" t="n">
+        <v>833.723</v>
+      </c>
+      <c r="HE33" t="n">
+        <v>1064.143</v>
       </c>
     </row>
     <row r="34">
@@ -16746,10 +16916,16 @@
         <v>0</v>
       </c>
       <c r="HB34" t="n">
-        <v>5.657</v>
+        <v>5.666</v>
       </c>
       <c r="HC34" t="n">
         <v>9.041</v>
+      </c>
+      <c r="HD34" t="n">
+        <v>14.471</v>
+      </c>
+      <c r="HE34" t="n">
+        <v>17.344</v>
       </c>
     </row>
     <row r="35">
@@ -17178,6 +17354,12 @@
       <c r="HC35" t="n">
         <v>0</v>
       </c>
+      <c r="HD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -17605,6 +17787,12 @@
       <c r="HC36" t="n">
         <v>0</v>
       </c>
+      <c r="HD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -18027,10 +18215,16 @@
         <v>0</v>
       </c>
       <c r="HB37" t="n">
-        <v>358.191</v>
+        <v>361.182</v>
       </c>
       <c r="HC37" t="n">
-        <v>516.918</v>
+        <v>520.006</v>
+      </c>
+      <c r="HD37" t="n">
+        <v>833.723</v>
+      </c>
+      <c r="HE37" t="n">
+        <v>1064.143</v>
       </c>
     </row>
     <row r="38">
@@ -18454,10 +18648,16 @@
         <v>0</v>
       </c>
       <c r="HB38" t="n">
-        <v>5.657</v>
+        <v>5.666</v>
       </c>
       <c r="HC38" t="n">
         <v>9.041</v>
+      </c>
+      <c r="HD38" t="n">
+        <v>14.471</v>
+      </c>
+      <c r="HE38" t="n">
+        <v>17.344</v>
       </c>
     </row>
     <row r="39">
@@ -18886,6 +19086,12 @@
       <c r="HC39" t="n">
         <v>0</v>
       </c>
+      <c r="HD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -19313,6 +19519,12 @@
       <c r="HC40" t="n">
         <v>0</v>
       </c>
+      <c r="HD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -19954,6 +20166,12 @@
         <v>0</v>
       </c>
       <c r="HC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20405,6 +20623,12 @@
         <v>0</v>
       </c>
       <c r="HC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20834,6 +21058,12 @@
       <c r="HC43" t="n">
         <v>0</v>
       </c>
+      <c r="HD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -21259,6 +21489,12 @@
         <v>0</v>
       </c>
       <c r="HC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21515,10 +21751,16 @@
         <v>1716.463</v>
       </c>
       <c r="HB45" t="n">
-        <v>1960.958</v>
+        <v>1971.342</v>
       </c>
       <c r="HC45" t="n">
-        <v>1845.865</v>
+        <v>1834.315</v>
+      </c>
+      <c r="HD45" t="n">
+        <v>1316.908</v>
+      </c>
+      <c r="HE45" t="n">
+        <v>809.28</v>
       </c>
     </row>
     <row r="46">
@@ -21774,10 +22016,16 @@
         <v>28.769</v>
       </c>
       <c r="HB46" t="n">
-        <v>30.969</v>
+        <v>30.923</v>
       </c>
       <c r="HC46" t="n">
-        <v>32.284</v>
+        <v>31.891</v>
+      </c>
+      <c r="HD46" t="n">
+        <v>22.857</v>
+      </c>
+      <c r="HE46" t="n">
+        <v>13.19</v>
       </c>
     </row>
   </sheetData>
